--- a/assembly/gsvesc_bom_jlc.xlsx
+++ b/assembly/gsvesc_bom_jlc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -295,9 +295,6 @@
     <t xml:space="preserve">R21, R19, R17, R13, </t>
   </si>
   <si>
-    <t xml:space="preserve">C4382</t>
-  </si>
-  <si>
     <t xml:space="preserve">4R75</t>
   </si>
   <si>
@@ -421,13 +418,19 @@
     <t xml:space="preserve">U18, </t>
   </si>
   <si>
+    <t xml:space="preserve">SOP-4_4.1x4.4x2.54P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C425101</t>
+  </si>
+  <si>
     <t xml:space="preserve">X50328MSB2GI</t>
   </si>
   <si>
     <t xml:space="preserve">Y1, </t>
   </si>
   <si>
-    <t xml:space="preserve">SMD-4</t>
+    <t xml:space="preserve">SMD-5032_2P</t>
   </si>
   <si>
     <t xml:space="preserve">C115962</t>
@@ -445,6 +448,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -466,6 +470,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -510,7 +515,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,6 +526,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -543,12 +552,12 @@
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25:G25"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.11"/>
@@ -938,180 +947,184 @@
       <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>129</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>130</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="C40" s="3" t="s">
         <v>132</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="C41" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/assembly/gsvesc_bom_jlc.xlsx
+++ b/assembly/gsvesc_bom_jlc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="136">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -232,9 +232,6 @@
     <t xml:space="preserve">R2, R3, </t>
   </si>
   <si>
-    <t xml:space="preserve">C17561</t>
-  </si>
-  <si>
     <t xml:space="preserve">100R</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
   </si>
   <si>
     <t xml:space="preserve">R12, R15, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C17772</t>
   </si>
   <si>
     <t xml:space="preserve">56k0</t>
@@ -440,8 +434,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;WAHR&quot;;&quot;WAHR&quot;;&quot;FALSCH&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -515,7 +510,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -525,6 +520,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,8 +550,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -849,282 +848,287 @@
       <c r="C21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>87</v>
-      </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>88</v>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="2"/>
+      <c r="E28" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="D31" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="D33" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="D34" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="D35" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="D36" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="D37" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="D38" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="D40" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="D41" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
